--- a/repos_python/test.xlsx
+++ b/repos_python/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,781 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[LG] 홈가전 패키지 (Bronze) (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B_[LG] 홈가전 패키지 (Bronze) (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9270000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/11/07/%EC%A0%84%EC%B2%B4%EC%83%81%EC%84%B8_HWCl6xc.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>글로벌 가전 패키지 (Bronze) (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B_글로벌 가전 패키지 (Bronze) (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9199000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_h9NgcR4.webp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[삼성] 모바일 패키지 (Bronze) (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B_[삼성] 모바일 패키지 (Bronze) (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8977300</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/02/08/%EC%83%81%EC%84%B8%EC%A0%84%EC%B2%B4.webp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[HONDA] 혼다 ADV350 어드벤처 스쿠터 (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B_[HONDA] 혼다 ADV350 어드벤처 스쿠터 (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8530000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_h4aRGi0.webp</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[애플] 전자가전 패키지 (Bronze) (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B_[애플] 전자가전 패키지 (Bronze) (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8336000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/11/01/%EC%83%81%EC%84%B8%EC%A0%84%EC%B2%B4.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[애플] Apple 아이폰 15 128GB [자급제] (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B_[애플] Apple 아이폰 15 128GB [자급제] (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/11/01/iphone-15-%EC%83%81%EC%84%B8.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[삼성] 갤럭시 탭 S9 플러스 (Wi-Fi) 256GB SM-X810NZ (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B_[삼성] 갤럭시 탭 S9 플러스 (Wi-Fi) 256GB SM-X810NZ (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1248500</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/08/17/sp.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[LG] 스탠바이미 Go</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B_[LG] 스탠바이미 Go.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1190000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/07/14/110_df2uDwK.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[삼성] 갤럭시 S24 자급제 256GB (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B_[삼성] 갤럭시 S24 자급제 256GB (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1155000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/02/08/%EC%82%BC%EC%84%B1_%EA%B0%A4%EB%9F%AD%EC%8B%9C_S24_%EC%9E%90%EA%B8%89%EC%A0%9C_256GB_%EC%83%89%EC%83%81%EB%9E%9C%EB%8D%A4_%EC%83%81%EC%84%B8.webp</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[애플] Apple Watch Ultra 2 49mm (밴드 및 색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B_[애플] Apple Watch Ultra 2 49mm (밴드 및 색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1149000</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/11/02/Apple-Watch-Ultra-2-%EC%83%81%EC%84%B8.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[애플] APPLE 맥미니 M2 MMFK3KHA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B_[애플] APPLE 맥미니 M2 MMFK3KH/A.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/07/18/8f6d9476-fcd1-4679-8f54-40d55a640875_1675145251625.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[INNOS] 이노스 24년형 G75 ZERO 구글 스마트 AI TV (스탠드 기사 방문설치)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B_[INNOS] 이노스 24년형 G75 ZERO 구글 스마트 AI TV (스탠드 기사 방문설치).jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1110000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/02/08/INNOS_%EC%9D%B4%EB%85%B8%EC%8A%A4_24%EB%85%84%ED%98%95_G75_ZERO_%EA%B5%AC%EA%B8%80_%EC%8A%A4%EB%A7%88%ED%8A%B8_AI_TV_%EC%83%81%EC%84%B8.webp</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[삼성] 2023 스마트모니터 무빙 스탠드 M8(M80C) 웜 화이트 (80 cm)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B_[삼성] 2023 스마트모니터 무빙 스탠드 M8(M80C) 웜 화이트 (80 cm).jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/02/08/%EC%82%BC%EC%84%B1_2023_%EC%8A%A4%EB%A7%88%ED%8A%B8%EB%AA%A8%EB%8B%88%ED%84%B0_%EB%AC%B4%EB%B9%99_%EC%8A%A4%ED%83%A0%EB%93%9C_M8M80C_%EC%9B%9C_%ED%99%94%EC%9D%B4%ED%8A%B8_80_cm.webp</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[LG] 스타일러 S3JHW</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B_[LG] 스타일러 S3JHW.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/07/16/S3JHW_%EC%83%81%EC%84%B8.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[LG] 코드제로 오브제컬렉션 A9S AX9604WE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B_[LG] 코드제로 오브제컬렉션 A9S AX9604WE.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>980000</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/09/04/e114ea31-78f4-4e35-9fe8-849a941507e6.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[LENOVO] 레노버 아이디어패드 Slim5 Light 14ABR8 - 82XS001AKR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>B_[LENOVO] 레노버 아이디어패드 Slim5 Light 14ABR8 - 82XS001AKR.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>949000</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_F76x3Yq.webp</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[드롱기] 전자동 커피머신 도피오 KRECAM220.21.BG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B_[드롱기] 전자동 커피머신 도피오 KRECAM220.21.BG.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>939930</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/02/08/%EB%93%9C%EB%A1%B1%EA%B8%B0_%EC%A0%84%EC%9E%90%EB%8F%99_%EC%BB%A4%ED%94%BC%EB%A8%B8%EC%8B%A0_%EB%8F%84%ED%94%BC%EC%98%A4_KRECAM220.21.BG_%EC%83%81%EC%84%B8_7xg6lHV.webp</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[애플] 아이패드 에어 5세대 Wi-Fi 64GB (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B_[애플] 아이패드 에어 5세대 Wi-Fi 64GB (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>929000</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/07/14/%EC%83%81%EC%84%B81.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>그래픽카드 RTX 4070 (모델 가변적)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B_그래픽카드 RTX 4070 (모델 가변적).jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>900000</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_9SilEnG.webp</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>뱅앤올룹슨 베오사운드 이머지 (Beosound Emerge) Black 프리미엄 유선 스피커</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B_뱅앤올룹슨 베오사운드 이머지 (Beosound Emerge) Black 프리미엄 유선 스피커.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>858000</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/12/07/%EC%83%81%EC%84%B8_CmEb9nm.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>린클 그래비티 음식물처리기 RC-GT500 (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B_린클 그래비티 음식물처리기 RC-GT500 (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>850000</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/12/06/%EB%A6%B0%ED%81%B4_%EA%B7%B8%EB%9E%98%EB%B9%84%ED%8B%B0_%EC%9D%8C%EC%8B%9D%EB%AC%BC%EC%B2%98%EB%A6%AC%EA%B8%B0_RC-GT500_%EC%83%89%EC%83%81%EB%9E%9C%EB%8D%A4_detail.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>로지텍 3종 게이밍 사랑 패키지 (블랙화이트 색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B_로지텍 3종 게이밍 사랑 패키지 (블랙/화이트 색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>807000</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/11/17/%EB%A1%9C%EC%A7%80%ED%85%8D_%EC%83%81%EC%84%B8.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[TRANSPARENT] 트랜스페어런트 스몰 투명 블루투스 스피커 (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>B_[TRANSPARENT] 트랜스페어런트 스몰 투명 블루투스 스피커 (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>790000</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/09/19/TRANSPARENT_%ED%8A%B8%EB%9E%9C%EC%8A%A4%ED%8E%98%EC%96%B4%EB%9F%B0%ED%8A%B8_%EC%8A%A4%EB%AA%B0_%ED%88%AC%EB%AA%85_%EB%B8%94%EB%A3%A8%ED%88%AC%EC%8A%A4_%EC%8A%A4%ED%94%BC%EC%BB%A4_%EC%83%81%EC%84%B8.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[애플] Apple 에어팟 맥스 블루투스 헤드셋 (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>B_[애플] Apple 에어팟 맥스 블루투스 헤드셋 (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>769000</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8.webp</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[다이슨] 에어랩 멀티 스타일러 컴플리트 롱 (색상랜덤)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>B_[다이슨] 에어랩 멀티 스타일러 컴플리트 롱 (색상랜덤).jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>749000</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://hashbox.monster/media/Goods/2023/09/05/%EB%8B%A4%EC%9D%B4%EC%8A%A8_%EC%97%90%EC%96%B4%EB%9E%A9_%EB%A9%80%ED%8B%B0_%EC%8A%A4%ED%83%80%EC%9D%BC%EB%9F%AC_%EC%BB%B4%ED%94%8C%EB%A6%AC%ED%8A%B8_%EB%A1%B1%EB%8B%88%EC%BC%88%EC%BD%94%ED%8D%BC_%EC%83%81%EC%84%B8.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/repos_python/test.xlsx
+++ b/repos_python/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,20 +473,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[베스파] ALL NEW GTV300 (색상랜덤)</t>
+          <t>코멧 밸런스 아치패드 블랙</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B_[베스파] ALL NEW GTV300 (색상랜덤).jpg</t>
+          <t>n_00000161.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9690000</v>
+        <v>14000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/02/08/%EB%B2%A0%EC%8A%A4%ED%8C%8C_ALL_NEW_GTV300_%EC%83%89%EC%83%81%EB%9E%9C%EB%8D%A4_%EC%83%81%EC%84%B8.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/09/15/%EC%BD%94%EB%A9%A7_%EC%95%84%EC%B9%98%ED%8C%A8%EB%93%9C_7whftAH.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -504,20 +504,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[LG] 홈가전 패키지 (Bronze) (색상랜덤)</t>
+          <t>젤리젤로 쿼드 코어 칫솔 4개입 세트 오리지널</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B_[LG] 홈가전 패키지 (Bronze) (색상랜덤).jpg</t>
+          <t>n_00000162.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9270000</v>
+        <v>13920</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/11/07/%EC%A0%84%EC%B2%B4%EC%83%81%EC%84%B8_HWCl6xc.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/11/24/01_MainOriginal_dd.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,20 +535,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>글로벌 가전 패키지 (Bronze) (색상랜덤)</t>
+          <t>어성초 비누 100g 4개</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B_글로벌 가전 패키지 (Bronze) (색상랜덤).jpg</t>
+          <t>n_00000163.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9199000</v>
+        <v>13920</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_h9NgcR4.webp</t>
+          <t>https://hashbox.monster/media/Goods/2024/02/22/%EC%96%B4%EC%84%B1%EC%B4%88%EB%B9%84%EB%88%84_%EC%83%81%EC%84%B8.webp</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -566,20 +566,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[삼성] 모바일 패키지 (Bronze) (색상랜덤)</t>
+          <t>안전한 전선커버 세트 블랙 (대형20mm + 소형15mm)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B_[삼성] 모바일 패키지 (Bronze) (색상랜덤).jpg</t>
+          <t>n_00000164.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8977300</v>
+        <v>13900</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/02/08/%EC%83%81%EC%84%B8%EC%A0%84%EC%B2%B4.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/09/15/%EB%AC%B4%EB%A1%9C_%EC%95%88%EC%A0%84%ED%95%9C_%EC%A0%84%EC%84%A0%EC%BB%A4%EB%B2%84_%EC%84%B8%ED%8A%B8.JPG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -597,20 +597,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[HONDA] 혼다 ADV350 어드벤처 스쿠터 (색상랜덤)</t>
+          <t>바이마르 네카르 멀티포트 1.2L</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B_[HONDA] 혼다 ADV350 어드벤처 스쿠터 (색상랜덤).jpg</t>
+          <t>n_00000165.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8530000</v>
+        <v>13900</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_h4aRGi0.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/08/23/%EB%B0%94%EC%9D%B4%EB%A7%88%EB%A5%B4_%EB%84%A4%EC%B9%B4%EB%A5%B4_%EB%A9%80%ED%8B%B0%ED%8F%AC%ED%8A%B8_1.2L_VMK-G191034_%EC%83%81%EC%84%B8.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -628,20 +628,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[애플] 전자가전 패키지 (Bronze) (색상랜덤)</t>
+          <t>제너 오펜 인덕션 티타늄코팅 에그팬</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B_[애플] 전자가전 패키지 (Bronze) (색상랜덤).jpg</t>
+          <t>n_00000166.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8336000</v>
+        <v>13900</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/11/01/%EC%83%81%EC%84%B8%EC%A0%84%EC%B2%B4.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/3706.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -659,20 +659,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[애플] Apple 아이폰 15 128GB [자급제] (색상랜덤)</t>
+          <t>네오맥스 몬스터 진공 화이트 텀블러 900ml</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B_[애플] Apple 아이폰 15 128GB [자급제] (색상랜덤).jpg</t>
+          <t>n_00000167.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1250000</v>
+        <v>13900</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/11/01/iphone-15-%EC%83%81%EC%84%B8.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/4502.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -690,20 +690,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[삼성] 갤럭시 탭 S9 플러스 (Wi-Fi) 256GB SM-X810NZ (색상랜덤)</t>
+          <t>뜯어쓰는 일회용 수세미 61매 3세트</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B_[삼성] 갤럭시 탭 S9 플러스 (Wi-Fi) 256GB SM-X810NZ (색상랜덤).jpg</t>
+          <t>n_00000168.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1248500</v>
+        <v>13900</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/08/17/sp.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/09/22/%EC%88%98%EC%84%B8%EB%AF%B8_d.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -721,20 +721,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[LG] 스탠바이미 Go</t>
+          <t>엘로보 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B_[LG] 스탠바이미 Go.jpg</t>
+          <t>n_00000169.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1190000</v>
+        <v>13900</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/07/14/110_df2uDwK.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/6041.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -752,20 +752,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[삼성] 갤럭시 S24 자급제 256GB (색상랜덤)</t>
+          <t>e로운 생활 믹싱볼 3종세트 믹싱볼 26 쌀함지박볼24 타공22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B_[삼성] 갤럭시 S24 자급제 256GB (색상랜덤).jpg</t>
+          <t>n_00000170.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1155000</v>
+        <v>13900</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/02/08/%EC%82%BC%EC%84%B1_%EA%B0%A4%EB%9F%AD%EC%8B%9C_S24_%EC%9E%90%EA%B8%89%EC%A0%9C_256GB_%EC%83%89%EC%83%81%EB%9E%9C%EB%8D%A4_%EC%83%81%EC%84%B8.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/14/lnc-d.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -783,20 +783,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[애플] Apple Watch Ultra 2 49mm (밴드 및 색상랜덤)</t>
+          <t>무로 바라나스 2 in 1 스마트 무소음 노라인 멀티 줄넘기 1세트</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B_[애플] Apple Watch Ultra 2 49mm (밴드 및 색상랜덤).jpg</t>
+          <t>n_00000171.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1149000</v>
+        <v>13900</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/11/02/Apple-Watch-Ultra-2-%EC%83%81%EC%84%B8.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/6595.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -814,20 +814,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[애플] APPLE 맥미니 M2 MMFK3KHA</t>
+          <t>코시 무소음 세미버티컬 무선마우스 M2154WL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B_[애플] APPLE 맥미니 M2 MMFK3KH/A.jpg</t>
+          <t>n_00000172.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1120000</v>
+        <v>13860</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/07/18/8f6d9476-fcd1-4679-8f54-40d55a640875_1675145251625.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/6075.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -845,20 +845,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[INNOS] 이노스 24년형 G75 ZERO 구글 스마트 AI TV (스탠드 기사 방문설치)</t>
+          <t>칼리프 PVC 꼬이지않는 샤워호스 2M</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B_[INNOS] 이노스 24년형 G75 ZERO 구글 스마트 AI TV (스탠드 기사 방문설치).jpg</t>
+          <t>n_00000173.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1110000</v>
+        <v>13800</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/02/08/INNOS_%EC%9D%B4%EB%85%B8%EC%8A%A4_24%EB%85%84%ED%98%95_G75_ZERO_%EA%B5%AC%EA%B8%80_%EC%8A%A4%EB%A7%88%ED%8A%B8_AI_TV_%EC%83%81%EC%84%B8.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/14/kal01-d.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -876,20 +876,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[삼성] 2023 스마트모니터 무빙 스탠드 M8(M80C) 웜 화이트 (80 cm)</t>
+          <t>엑스트라 데스크탑 홀더 S7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B_[삼성] 2023 스마트모니터 무빙 스탠드 M8(M80C) 웜 화이트 (80 cm).jpg</t>
+          <t>n_00000174.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1099000</v>
+        <v>13800</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/02/08/%EC%82%BC%EC%84%B1_2023_%EC%8A%A4%EB%A7%88%ED%8A%B8%EB%AA%A8%EB%8B%88%ED%84%B0_%EB%AC%B4%EB%B9%99_%EC%8A%A4%ED%83%A0%EB%93%9C_M8M80C_%EC%9B%9C_%ED%99%94%EC%9D%B4%ED%8A%B8_80_cm.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/8097.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -907,20 +907,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[LG] 스타일러 S3JHW</t>
+          <t>네오맥스 리버시블 스테인리스 양면도마</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B_[LG] 스타일러 S3JHW.jpg</t>
+          <t>n_00000175.jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1090000</v>
+        <v>13800</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/07/16/S3JHW_%EC%83%81%EC%84%B8.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/4303.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -938,20 +938,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[LG] 코드제로 오브제컬렉션 A9S AX9604WE</t>
+          <t>코시 리우젤 마우스패드 MP2101</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B_[LG] 코드제로 오브제컬렉션 A9S AX9604WE.jpg</t>
+          <t>n_00000176.jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>980000</v>
+        <v>13640</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/09/04/e114ea31-78f4-4e35-9fe8-849a941507e6.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/4858.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -969,20 +969,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[LENOVO] 레노버 아이디어패드 Slim5 Light 14ABR8 - 82XS001AKR</t>
+          <t>리앤쿡 스토리지(storage) 전자렌지용기 10p</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B_[LENOVO] 레노버 아이디어패드 Slim5 Light 14ABR8 - 82XS001AKR.jpg</t>
+          <t>n_00000177.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>949000</v>
+        <v>13600</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_F76x3Yq.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/4225.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1000,20 +1000,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[드롱기] 전자동 커피머신 도피오 KRECAM220.21.BG</t>
+          <t>로기 월넛 핸들 에그홀더 6구</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B_[드롱기] 전자동 커피머신 도피오 KRECAM220.21.BG.jpg</t>
+          <t>n_00000178.jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>939930</v>
+        <v>13570</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/02/08/%EB%93%9C%EB%A1%B1%EA%B8%B0_%EC%A0%84%EC%9E%90%EB%8F%99_%EC%BB%A4%ED%94%BC%EB%A8%B8%EC%8B%A0_%EB%8F%84%ED%94%BC%EC%98%A4_KRECAM220.21.BG_%EC%83%81%EC%84%B8_7xg6lHV.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/5640.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1031,20 +1031,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[애플] 아이패드 에어 5세대 Wi-Fi 64GB (색상랜덤)</t>
+          <t>코시 4in1 멀티 고속충전 케이블 2M C타입 USB-A UC2189GC2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B_[애플] 아이패드 에어 5세대 Wi-Fi 64GB (색상랜덤).jpg</t>
+          <t>n_00000179.jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>929000</v>
+        <v>13400</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2023/07/14/%EC%83%81%EC%84%B81.jpg</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/6054.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1062,20 +1062,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>그래픽카드 RTX 4070 (모델 가변적)</t>
+          <t>딥쉬 니치 퍼퓸 섬유향수 100ml (1+1)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B_그래픽카드 RTX 4070 (모델 가변적).jpg</t>
+          <t>n_00000180.jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>900000</v>
+        <v>13380</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8_9SilEnG.webp</t>
+          <t>https://hashbox.monster/media/Goods/2023/07/32/6948.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1085,192 +1085,6 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>뱅앤올룹슨 베오사운드 이머지 (Beosound Emerge) Black 프리미엄 유선 스피커</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>B_뱅앤올룹슨 베오사운드 이머지 (Beosound Emerge) Black 프리미엄 유선 스피커.jpg</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>858000</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://hashbox.monster/media/Goods/2023/12/07/%EC%83%81%EC%84%B8_CmEb9nm.jpg</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>린클 그래비티 음식물처리기 RC-GT500 (색상랜덤)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>B_린클 그래비티 음식물처리기 RC-GT500 (색상랜덤).jpg</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>850000</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://hashbox.monster/media/Goods/2023/12/06/%EB%A6%B0%ED%81%B4_%EA%B7%B8%EB%9E%98%EB%B9%84%ED%8B%B0_%EC%9D%8C%EC%8B%9D%EB%AC%BC%EC%B2%98%EB%A6%AC%EA%B8%B0_RC-GT500_%EC%83%89%EC%83%81%EB%9E%9C%EB%8D%A4_detail.jpg</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>로지텍 3종 게이밍 사랑 패키지 (블랙화이트 색상랜덤)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>B_로지텍 3종 게이밍 사랑 패키지 (블랙/화이트 색상랜덤).jpg</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>807000</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://hashbox.monster/media/Goods/2023/11/17/%EB%A1%9C%EC%A7%80%ED%85%8D_%EC%83%81%EC%84%B8.jpg</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>[TRANSPARENT] 트랜스페어런트 스몰 투명 블루투스 스피커 (색상랜덤)</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>B_[TRANSPARENT] 트랜스페어런트 스몰 투명 블루투스 스피커 (색상랜덤).jpg</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>790000</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://hashbox.monster/media/Goods/2023/09/19/TRANSPARENT_%ED%8A%B8%EB%9E%9C%EC%8A%A4%ED%8E%98%EC%96%B4%EB%9F%B0%ED%8A%B8_%EC%8A%A4%EB%AA%B0_%ED%88%AC%EB%AA%85_%EB%B8%94%EB%A3%A8%ED%88%AC%EC%8A%A4_%EC%8A%A4%ED%94%BC%EC%BB%A4_%EC%83%81%EC%84%B8.jpg</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[애플] Apple 에어팟 맥스 블루투스 헤드셋 (색상랜덤)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>B_[애플] Apple 에어팟 맥스 블루투스 헤드셋 (색상랜덤).jpg</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>769000</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://hashbox.monster/media/Goods/2024/03/18/%EC%83%81%EC%84%B8.webp</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>[다이슨] 에어랩 멀티 스타일러 컴플리트 롱 (색상랜덤)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>B_[다이슨] 에어랩 멀티 스타일러 컴플리트 롱 (색상랜덤).jpg</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>749000</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://hashbox.monster/media/Goods/2023/09/05/%EB%8B%A4%EC%9D%B4%EC%8A%A8_%EC%97%90%EC%96%B4%EB%9E%A9_%EB%A9%80%ED%8B%B0_%EC%8A%A4%ED%83%80%EC%9D%BC%EB%9F%AC_%EC%BB%B4%ED%94%8C%EB%A6%AC%ED%8A%B8_%EB%A1%B1%EB%8B%88%EC%BC%88%EC%BD%94%ED%8D%BC_%EC%83%81%EC%84%B8.jpg</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
